--- a/data.xlsx
+++ b/data.xlsx
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,32 +995,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Garg Pedhi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vikas Garg</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>18249748</v>
+        <v>8365015567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>adgag</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>Shubham Retailers</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shubham Jain</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>144231</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>9374</v>
+        <v>8399178591</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,6 +884,26 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-04-14</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
         <v>1</v>
       </c>
     </row>
